--- a/Dados/EmpresasICMS.xlsx
+++ b/Dados/EmpresasICMS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Ano</t>
   </si>
@@ -192,14 +192,265 @@
   </si>
   <si>
     <t>FCF-HYPE</t>
+  </si>
+  <si>
+    <t>PL-CIEL</t>
+  </si>
+  <si>
+    <t>RL-CIEL</t>
+  </si>
+  <si>
+    <t>EBD-CIEL</t>
+  </si>
+  <si>
+    <t>DEA-CIEL</t>
+  </si>
+  <si>
+    <t>IR-CIEL</t>
+  </si>
+  <si>
+    <t>LL-CIEL</t>
+  </si>
+  <si>
+    <t>CX-CIEL</t>
+  </si>
+  <si>
+    <t>DB-CIEL</t>
+  </si>
+  <si>
+    <t>FCO-CIEL</t>
+  </si>
+  <si>
+    <t>CPX-CIEL</t>
+  </si>
+  <si>
+    <t>FCF-CIEL</t>
+  </si>
+  <si>
+    <t>PL-COMG</t>
+  </si>
+  <si>
+    <t>RL-COMG</t>
+  </si>
+  <si>
+    <t>EBD-COMG</t>
+  </si>
+  <si>
+    <t>DEA-COMG</t>
+  </si>
+  <si>
+    <t>IR-COMG</t>
+  </si>
+  <si>
+    <t>LL-COMG</t>
+  </si>
+  <si>
+    <t>CX-COMG</t>
+  </si>
+  <si>
+    <t>DB-COMG</t>
+  </si>
+  <si>
+    <t>FCO-COMG</t>
+  </si>
+  <si>
+    <t>CPX-COMG</t>
+  </si>
+  <si>
+    <t>FCF-COMG</t>
+  </si>
+  <si>
+    <t>PL-ELTP</t>
+  </si>
+  <si>
+    <t>RL-ELTP</t>
+  </si>
+  <si>
+    <t>EBD-ELTP</t>
+  </si>
+  <si>
+    <t>DEA-ELTP</t>
+  </si>
+  <si>
+    <t>IR-ELTP</t>
+  </si>
+  <si>
+    <t>LL-ELTP</t>
+  </si>
+  <si>
+    <t>CX-ELTP</t>
+  </si>
+  <si>
+    <t>DB-ELTP</t>
+  </si>
+  <si>
+    <t>FCO-ELTP</t>
+  </si>
+  <si>
+    <t>CPX-ELTP</t>
+  </si>
+  <si>
+    <t>FCF-ELTP</t>
+  </si>
+  <si>
+    <t>PL-EMBR</t>
+  </si>
+  <si>
+    <t>RL-EMBR</t>
+  </si>
+  <si>
+    <t>EBD-EMBR</t>
+  </si>
+  <si>
+    <t>DEA-EMBR</t>
+  </si>
+  <si>
+    <t>IR-EMBR</t>
+  </si>
+  <si>
+    <t>LL-EMBR</t>
+  </si>
+  <si>
+    <t>CX-EMBR</t>
+  </si>
+  <si>
+    <t>DB-EMBR</t>
+  </si>
+  <si>
+    <t>FCO-EMBR</t>
+  </si>
+  <si>
+    <t>CPX-EMBR</t>
+  </si>
+  <si>
+    <t>FCF-EMBR</t>
+  </si>
+  <si>
+    <t>PL-GERD</t>
+  </si>
+  <si>
+    <t>RL-GERD</t>
+  </si>
+  <si>
+    <t>EBD-GERD</t>
+  </si>
+  <si>
+    <t>DEA-GERD</t>
+  </si>
+  <si>
+    <t>IR-GERD</t>
+  </si>
+  <si>
+    <t>LL-GERD</t>
+  </si>
+  <si>
+    <t>CX-GERD</t>
+  </si>
+  <si>
+    <t>DB-GERD</t>
+  </si>
+  <si>
+    <t>FCO-GERD</t>
+  </si>
+  <si>
+    <t>CPX-GERD</t>
+  </si>
+  <si>
+    <t>FCF-GERD</t>
+  </si>
+  <si>
+    <t>PL-SBSP</t>
+  </si>
+  <si>
+    <t>RL-SBSP</t>
+  </si>
+  <si>
+    <t>EBD-SBSP</t>
+  </si>
+  <si>
+    <t>DEA-SBSP</t>
+  </si>
+  <si>
+    <t>IR-SBSP</t>
+  </si>
+  <si>
+    <t>LL-SBSP</t>
+  </si>
+  <si>
+    <t>CX-SBSP</t>
+  </si>
+  <si>
+    <t>DB-SBSP</t>
+  </si>
+  <si>
+    <t>FCO-SBSP</t>
+  </si>
+  <si>
+    <t>CPX-SBSP</t>
+  </si>
+  <si>
+    <t>FCF-WEGE</t>
+  </si>
+  <si>
+    <t>PL-WEGE</t>
+  </si>
+  <si>
+    <t>RL-WEGE</t>
+  </si>
+  <si>
+    <t>EBD-WEGE</t>
+  </si>
+  <si>
+    <t>DEA-WEGE</t>
+  </si>
+  <si>
+    <t>IR-WEGE</t>
+  </si>
+  <si>
+    <t>LL-WEGE</t>
+  </si>
+  <si>
+    <t>CX-WEGE</t>
+  </si>
+  <si>
+    <t>DB-WEGE</t>
+  </si>
+  <si>
+    <t>FCO-WEGE</t>
+  </si>
+  <si>
+    <t>CPX-WEGE</t>
+  </si>
+  <si>
+    <t>Alckmin</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>PSDB</t>
+  </si>
+  <si>
+    <t>ICMS</t>
+  </si>
+  <si>
+    <t>label ICMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,9 +478,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +764,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EY8"/>
+  <dimension ref="A1:EH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,304 +946,253 @@
         <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="BU1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="BV1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="BW1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="BX1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="BY1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="CI1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="CK1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="CL1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="CM1" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="CN1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="CO1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="CP1" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="CQ1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="CR1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="CS1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="CT1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="CU1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="CV1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="CW1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="CX1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="CY1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="CZ1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="DA1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="DB1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="DC1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="DD1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="DE1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="DF1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="DG1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="DH1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="DI1" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="DJ1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="DK1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="DL1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="DM1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="DN1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="DO1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="DP1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="DQ1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="DR1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="DS1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="DT1" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="DU1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="DV1" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="DW1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="DX1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="DY1" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="DZ1" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="EA1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="EB1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="EC1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="ED1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="EE1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="EF1" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="EG1" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="EH1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>6</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>8</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>9</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>10</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>11</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>2</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>3</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>4</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>6</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>8</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>9</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>10</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -1155,8 +1362,254 @@
       <c r="BD2" s="1">
         <v>-1549</v>
       </c>
+      <c r="BE2">
+        <v>2413</v>
+      </c>
+      <c r="BF2">
+        <v>5385</v>
+      </c>
+      <c r="BG2">
+        <v>3038</v>
+      </c>
+      <c r="BH2">
+        <v>-256</v>
+      </c>
+      <c r="BI2">
+        <v>-1196</v>
+      </c>
+      <c r="BJ2">
+        <v>2332</v>
+      </c>
+      <c r="BK2">
+        <v>404</v>
+      </c>
+      <c r="BL2">
+        <v>2114</v>
+      </c>
+      <c r="BM2">
+        <v>1251</v>
+      </c>
+      <c r="BN2">
+        <v>-310</v>
+      </c>
+      <c r="BO2">
+        <v>350</v>
+      </c>
+      <c r="BP2">
+        <v>2174</v>
+      </c>
+      <c r="BQ2">
+        <v>5280</v>
+      </c>
+      <c r="BR2">
+        <v>727</v>
+      </c>
+      <c r="BS2">
+        <v>-49</v>
+      </c>
+      <c r="BT2">
+        <v>-144</v>
+      </c>
+      <c r="BU2">
+        <v>370</v>
+      </c>
+      <c r="BV2">
+        <v>170</v>
+      </c>
+      <c r="BW2">
+        <v>2520</v>
+      </c>
+      <c r="BX2">
+        <v>488</v>
+      </c>
+      <c r="BY2">
+        <v>-616</v>
+      </c>
+      <c r="BZ2">
+        <v>257</v>
+      </c>
+      <c r="CA2">
+        <v>1709</v>
+      </c>
+      <c r="CB2">
+        <v>9959</v>
+      </c>
+      <c r="CC2">
+        <v>575</v>
+      </c>
+      <c r="CD2">
+        <v>-451</v>
+      </c>
+      <c r="CE2">
+        <v>-17</v>
+      </c>
+      <c r="CF2">
+        <v>55</v>
+      </c>
+      <c r="CG2">
+        <v>815</v>
+      </c>
+      <c r="CH2">
+        <v>2802</v>
+      </c>
+      <c r="CI2">
+        <v>332</v>
+      </c>
+      <c r="CJ2">
+        <v>-872</v>
+      </c>
+      <c r="CK2">
+        <v>-301</v>
+      </c>
+      <c r="CL2">
+        <v>6848</v>
+      </c>
+      <c r="CM2">
+        <v>12180</v>
+      </c>
+      <c r="CN2">
+        <v>1763</v>
+      </c>
+      <c r="CO2">
+        <v>-546</v>
+      </c>
+      <c r="CP2">
+        <v>-523</v>
+      </c>
+      <c r="CQ2">
+        <v>699</v>
+      </c>
+      <c r="CR2">
+        <v>4862</v>
+      </c>
+      <c r="CS2">
+        <v>4223</v>
+      </c>
+      <c r="CT2">
+        <v>1879</v>
+      </c>
+      <c r="CU2">
+        <v>-1145</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>1766</v>
+      </c>
+      <c r="CW2">
+        <v>28798</v>
+      </c>
+      <c r="CX2">
+        <v>37982</v>
+      </c>
+      <c r="CY2">
+        <v>4175</v>
+      </c>
+      <c r="CZ2">
+        <v>-1827</v>
+      </c>
+      <c r="DA2">
+        <v>-63</v>
+      </c>
+      <c r="DB2">
+        <v>1496</v>
+      </c>
+      <c r="DC2">
+        <v>2496</v>
+      </c>
+      <c r="DD2">
+        <v>14668</v>
+      </c>
+      <c r="DE2">
+        <v>4344</v>
+      </c>
+      <c r="DF2">
+        <v>-3284</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>-1036</v>
+      </c>
+      <c r="DH2">
+        <v>11257</v>
+      </c>
+      <c r="DI2">
+        <v>10738</v>
+      </c>
+      <c r="DJ2">
+        <v>3582</v>
+      </c>
+      <c r="DK2">
+        <v>-739</v>
+      </c>
+      <c r="DL2">
+        <v>-635</v>
+      </c>
+      <c r="DM2">
+        <v>1912</v>
+      </c>
+      <c r="DN2">
+        <v>1915</v>
+      </c>
+      <c r="DO2">
+        <v>8874</v>
+      </c>
+      <c r="DP2">
+        <v>2343</v>
+      </c>
+      <c r="DQ2">
+        <v>-2026</v>
+      </c>
+      <c r="DR2">
+        <v>-573</v>
+      </c>
+      <c r="DS2">
+        <v>4152</v>
+      </c>
+      <c r="DT2">
+        <v>6174</v>
+      </c>
+      <c r="DU2">
+        <v>1016</v>
+      </c>
+      <c r="DV2">
+        <v>-208</v>
+      </c>
+      <c r="DW2">
+        <v>-199</v>
+      </c>
+      <c r="DX2">
+        <v>665</v>
+      </c>
+      <c r="DY2">
+        <v>2302</v>
+      </c>
+      <c r="DZ2">
+        <v>2690</v>
+      </c>
+      <c r="EA2">
+        <v>1039</v>
+      </c>
+      <c r="EB2">
+        <v>-256</v>
+      </c>
+      <c r="EC2">
+        <v>-1226</v>
+      </c>
+      <c r="ED2">
+        <v>1</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>1</v>
+      </c>
+      <c r="EG2">
+        <v>105000</v>
+      </c>
+      <c r="EH2">
+        <v>112500</v>
+      </c>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -1325,8 +1778,254 @@
       <c r="BD3">
         <v>-1122</v>
       </c>
+      <c r="BE3">
+        <v>3332</v>
+      </c>
+      <c r="BF3">
+        <v>6734</v>
+      </c>
+      <c r="BG3">
+        <v>3575</v>
+      </c>
+      <c r="BH3">
+        <v>-391</v>
+      </c>
+      <c r="BI3">
+        <v>-1358</v>
+      </c>
+      <c r="BJ3">
+        <v>2681</v>
+      </c>
+      <c r="BK3">
+        <v>423</v>
+      </c>
+      <c r="BL3">
+        <v>2488</v>
+      </c>
+      <c r="BM3">
+        <v>1999</v>
+      </c>
+      <c r="BN3">
+        <v>-385</v>
+      </c>
+      <c r="BO3">
+        <v>-1870</v>
+      </c>
+      <c r="BP3">
+        <v>2656</v>
+      </c>
+      <c r="BQ3">
+        <v>6337</v>
+      </c>
+      <c r="BR3">
+        <v>1113</v>
+      </c>
+      <c r="BS3">
+        <v>-41</v>
+      </c>
+      <c r="BT3">
+        <v>-262</v>
+      </c>
+      <c r="BU3">
+        <v>619</v>
+      </c>
+      <c r="BV3">
+        <v>536</v>
+      </c>
+      <c r="BW3">
+        <v>2841</v>
+      </c>
+      <c r="BX3">
+        <v>943</v>
+      </c>
+      <c r="BY3">
+        <v>-791</v>
+      </c>
+      <c r="BZ3">
+        <v>215</v>
+      </c>
+      <c r="CA3">
+        <v>2829</v>
+      </c>
+      <c r="CB3">
+        <v>9012</v>
+      </c>
+      <c r="CC3">
+        <v>827</v>
+      </c>
+      <c r="CD3">
+        <v>-436</v>
+      </c>
+      <c r="CE3">
+        <v>-112</v>
+      </c>
+      <c r="CF3">
+        <v>198</v>
+      </c>
+      <c r="CG3">
+        <v>974</v>
+      </c>
+      <c r="CH3">
+        <v>2748</v>
+      </c>
+      <c r="CI3">
+        <v>777</v>
+      </c>
+      <c r="CJ3">
+        <v>-814</v>
+      </c>
+      <c r="CK3">
+        <v>-144</v>
+      </c>
+      <c r="CL3">
+        <v>8509</v>
+      </c>
+      <c r="CM3">
+        <v>13936</v>
+      </c>
+      <c r="CN3">
+        <v>2239</v>
+      </c>
+      <c r="CO3">
+        <v>-633</v>
+      </c>
+      <c r="CP3">
+        <v>-566</v>
+      </c>
+      <c r="CQ3">
+        <v>786</v>
+      </c>
+      <c r="CR3">
+        <v>6146</v>
+      </c>
+      <c r="CS3">
+        <v>5140</v>
+      </c>
+      <c r="CT3">
+        <v>1355</v>
+      </c>
+      <c r="CU3">
+        <v>-1657</v>
+      </c>
+      <c r="CV3">
+        <v>336</v>
+      </c>
+      <c r="CW3">
+        <v>32021</v>
+      </c>
+      <c r="CX3">
+        <v>39863</v>
+      </c>
+      <c r="CY3">
+        <v>4784</v>
+      </c>
+      <c r="CZ3">
+        <v>-2030</v>
+      </c>
+      <c r="DA3">
+        <v>242</v>
+      </c>
+      <c r="DB3">
+        <v>1694</v>
+      </c>
+      <c r="DC3">
+        <v>4222</v>
+      </c>
+      <c r="DD3">
+        <v>16706</v>
+      </c>
+      <c r="DE3">
+        <v>4098</v>
+      </c>
+      <c r="DF3">
+        <v>-2756</v>
+      </c>
+      <c r="DG3">
+        <v>-805</v>
+      </c>
+      <c r="DH3">
+        <v>12931</v>
+      </c>
+      <c r="DI3">
+        <v>11316</v>
+      </c>
+      <c r="DJ3">
+        <v>4010</v>
+      </c>
+      <c r="DK3">
+        <v>-871</v>
+      </c>
+      <c r="DL3">
+        <v>-732</v>
+      </c>
+      <c r="DM3">
+        <v>1924</v>
+      </c>
+      <c r="DN3">
+        <v>1782</v>
+      </c>
+      <c r="DO3">
+        <v>9450</v>
+      </c>
+      <c r="DP3">
+        <v>2777</v>
+      </c>
+      <c r="DQ3">
+        <v>-2336</v>
+      </c>
+      <c r="DR3">
+        <v>-630</v>
+      </c>
+      <c r="DS3">
+        <v>4642</v>
+      </c>
+      <c r="DT3">
+        <v>6829</v>
+      </c>
+      <c r="DU3">
+        <v>1230</v>
+      </c>
+      <c r="DV3">
+        <v>-218</v>
+      </c>
+      <c r="DW3">
+        <v>-240</v>
+      </c>
+      <c r="DX3">
+        <v>845</v>
+      </c>
+      <c r="DY3">
+        <v>3373</v>
+      </c>
+      <c r="DZ3">
+        <v>3209</v>
+      </c>
+      <c r="EA3">
+        <v>1178</v>
+      </c>
+      <c r="EB3">
+        <v>-280</v>
+      </c>
+      <c r="EC3">
+        <v>-69</v>
+      </c>
+      <c r="ED3">
+        <v>1</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>1</v>
+      </c>
+      <c r="EG3">
+        <v>112500</v>
+      </c>
+      <c r="EH3" s="3">
+        <v>117143.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -1495,8 +2194,254 @@
       <c r="BD4">
         <v>-61</v>
       </c>
+      <c r="BE4">
+        <v>4324</v>
+      </c>
+      <c r="BF4">
+        <v>7726</v>
+      </c>
+      <c r="BG4">
+        <v>3839</v>
+      </c>
+      <c r="BH4">
+        <v>-427</v>
+      </c>
+      <c r="BI4">
+        <v>-1579</v>
+      </c>
+      <c r="BJ4">
+        <v>3229</v>
+      </c>
+      <c r="BK4">
+        <v>3999</v>
+      </c>
+      <c r="BL4">
+        <v>7340</v>
+      </c>
+      <c r="BM4">
+        <v>1835</v>
+      </c>
+      <c r="BN4">
+        <v>-673</v>
+      </c>
+      <c r="BO4">
+        <v>2395</v>
+      </c>
+      <c r="BP4">
+        <v>3109</v>
+      </c>
+      <c r="BQ4">
+        <v>6387</v>
+      </c>
+      <c r="BR4">
+        <v>1078</v>
+      </c>
+      <c r="BS4">
+        <v>-28</v>
+      </c>
+      <c r="BT4">
+        <v>-245</v>
+      </c>
+      <c r="BU4">
+        <v>612</v>
+      </c>
+      <c r="BV4">
+        <v>974</v>
+      </c>
+      <c r="BW4">
+        <v>3133</v>
+      </c>
+      <c r="BX4">
+        <v>1318</v>
+      </c>
+      <c r="BY4">
+        <v>-662</v>
+      </c>
+      <c r="BZ4">
+        <v>-219</v>
+      </c>
+      <c r="CA4">
+        <v>2568</v>
+      </c>
+      <c r="CB4">
+        <v>10596</v>
+      </c>
+      <c r="CC4">
+        <v>513</v>
+      </c>
+      <c r="CD4">
+        <v>-470</v>
+      </c>
+      <c r="CE4">
+        <v>64</v>
+      </c>
+      <c r="CF4">
+        <v>-132</v>
+      </c>
+      <c r="CG4">
+        <v>908</v>
+      </c>
+      <c r="CH4">
+        <v>3071</v>
+      </c>
+      <c r="CI4">
+        <v>2</v>
+      </c>
+      <c r="CJ4">
+        <v>-571</v>
+      </c>
+      <c r="CK4">
+        <v>217</v>
+      </c>
+      <c r="CL4">
+        <v>10265</v>
+      </c>
+      <c r="CM4">
+        <v>14936</v>
+      </c>
+      <c r="CN4">
+        <v>1981</v>
+      </c>
+      <c r="CO4">
+        <v>-677</v>
+      </c>
+      <c r="CP4">
+        <v>-374</v>
+      </c>
+      <c r="CQ4">
+        <v>827</v>
+      </c>
+      <c r="CR4">
+        <v>6437</v>
+      </c>
+      <c r="CS4">
+        <v>6661</v>
+      </c>
+      <c r="CT4">
+        <v>1275</v>
+      </c>
+      <c r="CU4">
+        <v>-1657</v>
+      </c>
+      <c r="CV4">
+        <v>789</v>
+      </c>
+      <c r="CW4">
+        <v>33255</v>
+      </c>
+      <c r="CX4">
+        <v>42546</v>
+      </c>
+      <c r="CY4">
+        <v>5126</v>
+      </c>
+      <c r="CZ4">
+        <v>-2227</v>
+      </c>
+      <c r="DA4">
+        <v>150</v>
+      </c>
+      <c r="DB4">
+        <v>1488</v>
+      </c>
+      <c r="DC4">
+        <v>5847</v>
+      </c>
+      <c r="DD4">
+        <v>19521</v>
+      </c>
+      <c r="DE4">
+        <v>2571</v>
+      </c>
+      <c r="DF4">
+        <v>-2405</v>
+      </c>
+      <c r="DG4">
+        <v>-523</v>
+      </c>
+      <c r="DH4">
+        <v>13304</v>
+      </c>
+      <c r="DI4">
+        <v>11213</v>
+      </c>
+      <c r="DJ4">
+        <v>2915</v>
+      </c>
+      <c r="DK4">
+        <v>-1004</v>
+      </c>
+      <c r="DL4">
+        <v>-372</v>
+      </c>
+      <c r="DM4">
+        <v>903</v>
+      </c>
+      <c r="DN4">
+        <v>1722</v>
+      </c>
+      <c r="DO4">
+        <v>10785</v>
+      </c>
+      <c r="DP4">
+        <v>2480</v>
+      </c>
+      <c r="DQ4">
+        <v>-2748</v>
+      </c>
+      <c r="DR4">
+        <v>218</v>
+      </c>
+      <c r="DS4">
+        <v>5139</v>
+      </c>
+      <c r="DT4">
+        <v>7841</v>
+      </c>
+      <c r="DU4">
+        <v>1344</v>
+      </c>
+      <c r="DV4">
+        <v>-250</v>
+      </c>
+      <c r="DW4">
+        <v>-266</v>
+      </c>
+      <c r="DX4">
+        <v>962</v>
+      </c>
+      <c r="DY4">
+        <v>4149</v>
+      </c>
+      <c r="DZ4">
+        <v>4091</v>
+      </c>
+      <c r="EA4">
+        <v>1215</v>
+      </c>
+      <c r="EB4">
+        <v>-468</v>
+      </c>
+      <c r="EC4">
+        <v>138</v>
+      </c>
+      <c r="ED4">
+        <v>1</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>1</v>
+      </c>
+      <c r="EG4" s="3">
+        <v>117143.2</v>
+      </c>
+      <c r="EH4" s="3">
+        <v>121002.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1665,8 +2610,254 @@
       <c r="BD5">
         <v>-994</v>
       </c>
+      <c r="BE5">
+        <v>10164</v>
+      </c>
+      <c r="BF5">
+        <v>11122</v>
+      </c>
+      <c r="BG5">
+        <v>5234</v>
+      </c>
+      <c r="BH5">
+        <v>-902</v>
+      </c>
+      <c r="BI5">
+        <v>-1784</v>
+      </c>
+      <c r="BJ5">
+        <v>3651</v>
+      </c>
+      <c r="BK5">
+        <v>1250</v>
+      </c>
+      <c r="BL5">
+        <v>13299</v>
+      </c>
+      <c r="BM5">
+        <v>2843</v>
+      </c>
+      <c r="BN5">
+        <v>-8559</v>
+      </c>
+      <c r="BO5">
+        <v>2915</v>
+      </c>
+      <c r="BP5">
+        <v>3181</v>
+      </c>
+      <c r="BQ5">
+        <v>6597</v>
+      </c>
+      <c r="BR5">
+        <v>1531</v>
+      </c>
+      <c r="BS5">
+        <v>-360</v>
+      </c>
+      <c r="BT5">
+        <v>-290</v>
+      </c>
+      <c r="BU5">
+        <v>699</v>
+      </c>
+      <c r="BV5">
+        <v>1967</v>
+      </c>
+      <c r="BW5">
+        <v>3822</v>
+      </c>
+      <c r="BX5">
+        <v>1933</v>
+      </c>
+      <c r="BY5">
+        <v>-521</v>
+      </c>
+      <c r="BZ5">
+        <v>-623</v>
+      </c>
+      <c r="CA5">
+        <v>2839</v>
+      </c>
+      <c r="CB5">
+        <v>13667</v>
+      </c>
+      <c r="CC5">
+        <v>964</v>
+      </c>
+      <c r="CD5">
+        <v>-491</v>
+      </c>
+      <c r="CE5">
+        <v>-58</v>
+      </c>
+      <c r="CF5">
+        <v>101</v>
+      </c>
+      <c r="CG5">
+        <v>531</v>
+      </c>
+      <c r="CH5">
+        <v>3603</v>
+      </c>
+      <c r="CI5">
+        <v>-316</v>
+      </c>
+      <c r="CJ5">
+        <v>-618</v>
+      </c>
+      <c r="CK5">
+        <v>438</v>
+      </c>
+      <c r="CL5">
+        <v>15009</v>
+      </c>
+      <c r="CM5">
+        <v>20302</v>
+      </c>
+      <c r="CN5">
+        <v>2176</v>
+      </c>
+      <c r="CO5">
+        <v>-1073</v>
+      </c>
+      <c r="CP5">
+        <v>-820</v>
+      </c>
+      <c r="CQ5">
+        <v>282</v>
+      </c>
+      <c r="CR5">
+        <v>10887</v>
+      </c>
+      <c r="CS5">
+        <v>13785</v>
+      </c>
+      <c r="CT5">
+        <v>3633</v>
+      </c>
+      <c r="CU5">
+        <v>-2594</v>
+      </c>
+      <c r="CV5">
+        <v>3887</v>
+      </c>
+      <c r="CW5">
+        <v>31970</v>
+      </c>
+      <c r="CX5">
+        <v>43581</v>
+      </c>
+      <c r="CY5">
+        <v>-608</v>
+      </c>
+      <c r="CZ5">
+        <v>-2607</v>
+      </c>
+      <c r="DA5">
+        <v>1498</v>
+      </c>
+      <c r="DB5">
+        <v>-4596</v>
+      </c>
+      <c r="DC5">
+        <v>6918</v>
+      </c>
+      <c r="DD5">
+        <v>26460</v>
+      </c>
+      <c r="DE5">
+        <v>7162</v>
+      </c>
+      <c r="DF5">
+        <v>-2451</v>
+      </c>
+      <c r="DG5">
+        <v>-2482</v>
+      </c>
+      <c r="DH5">
+        <v>13717</v>
+      </c>
+      <c r="DI5">
+        <v>11712</v>
+      </c>
+      <c r="DJ5">
+        <v>4118</v>
+      </c>
+      <c r="DK5">
+        <v>-1074</v>
+      </c>
+      <c r="DL5">
+        <v>-52</v>
+      </c>
+      <c r="DM5">
+        <v>536</v>
+      </c>
+      <c r="DN5">
+        <v>1639</v>
+      </c>
+      <c r="DO5">
+        <v>13121</v>
+      </c>
+      <c r="DP5">
+        <v>2641</v>
+      </c>
+      <c r="DQ5">
+        <v>-2452</v>
+      </c>
+      <c r="DR5">
+        <v>-266</v>
+      </c>
+      <c r="DS5">
+        <v>6156</v>
+      </c>
+      <c r="DT5">
+        <v>9760</v>
+      </c>
+      <c r="DU5">
+        <v>1477</v>
+      </c>
+      <c r="DV5">
+        <v>-319</v>
+      </c>
+      <c r="DW5">
+        <v>-137</v>
+      </c>
+      <c r="DX5">
+        <v>1166</v>
+      </c>
+      <c r="DY5">
+        <v>4434</v>
+      </c>
+      <c r="DZ5">
+        <v>5152</v>
+      </c>
+      <c r="EA5">
+        <v>982</v>
+      </c>
+      <c r="EB5">
+        <v>-507</v>
+      </c>
+      <c r="EC5">
+        <v>-158</v>
+      </c>
+      <c r="ED5">
+        <v>1</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>1</v>
+      </c>
+      <c r="EG5" s="3">
+        <v>121002.8</v>
+      </c>
+      <c r="EH5" s="3">
+        <v>121118.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1835,8 +3026,254 @@
       <c r="BD6">
         <v>-4740</v>
       </c>
+      <c r="BE6">
+        <v>12903</v>
+      </c>
+      <c r="BF6">
+        <v>12301</v>
+      </c>
+      <c r="BG6">
+        <v>5535</v>
+      </c>
+      <c r="BH6">
+        <v>-966</v>
+      </c>
+      <c r="BI6">
+        <v>-1837</v>
+      </c>
+      <c r="BJ6">
+        <v>4183</v>
+      </c>
+      <c r="BK6">
+        <v>265</v>
+      </c>
+      <c r="BL6">
+        <v>10791</v>
+      </c>
+      <c r="BM6">
+        <v>5129</v>
+      </c>
+      <c r="BN6">
+        <v>-527</v>
+      </c>
+      <c r="BO6">
+        <v>-3141</v>
+      </c>
+      <c r="BP6">
+        <v>2591</v>
+      </c>
+      <c r="BQ6">
+        <v>5657</v>
+      </c>
+      <c r="BR6">
+        <v>1966</v>
+      </c>
+      <c r="BS6">
+        <v>-390</v>
+      </c>
+      <c r="BT6">
+        <v>-412</v>
+      </c>
+      <c r="BU6">
+        <v>901</v>
+      </c>
+      <c r="BV6">
+        <v>2108</v>
+      </c>
+      <c r="BW6">
+        <v>4069</v>
+      </c>
+      <c r="BX6">
+        <v>2088</v>
+      </c>
+      <c r="BY6">
+        <v>-438</v>
+      </c>
+      <c r="BZ6">
+        <v>-1374</v>
+      </c>
+      <c r="CA6">
+        <v>2695</v>
+      </c>
+      <c r="CB6">
+        <v>11660</v>
+      </c>
+      <c r="CC6">
+        <v>734</v>
+      </c>
+      <c r="CD6">
+        <v>-490</v>
+      </c>
+      <c r="CE6">
+        <v>5</v>
+      </c>
+      <c r="CF6">
+        <v>21</v>
+      </c>
+      <c r="CG6">
+        <v>1068</v>
+      </c>
+      <c r="CH6">
+        <v>3271</v>
+      </c>
+      <c r="CI6">
+        <v>1702</v>
+      </c>
+      <c r="CJ6">
+        <v>-845</v>
+      </c>
+      <c r="CK6">
+        <v>-451</v>
+      </c>
+      <c r="CL6">
+        <v>12845</v>
+      </c>
+      <c r="CM6">
+        <v>21436</v>
+      </c>
+      <c r="CN6">
+        <v>1994</v>
+      </c>
+      <c r="CO6">
+        <v>-1276</v>
+      </c>
+      <c r="CP6">
+        <v>36</v>
+      </c>
+      <c r="CQ6">
+        <v>592</v>
+      </c>
+      <c r="CR6">
+        <v>9833</v>
+      </c>
+      <c r="CS6">
+        <v>12254</v>
+      </c>
+      <c r="CT6">
+        <v>-309</v>
+      </c>
+      <c r="CU6">
+        <v>-3104</v>
+      </c>
+      <c r="CV6">
+        <v>15</v>
+      </c>
+      <c r="CW6">
+        <v>24725</v>
+      </c>
+      <c r="CX6">
+        <v>37562</v>
+      </c>
+      <c r="CY6">
+        <v>939</v>
+      </c>
+      <c r="CZ6">
+        <v>-2575</v>
+      </c>
+      <c r="DA6">
+        <v>-305</v>
+      </c>
+      <c r="DB6">
+        <v>-2886</v>
+      </c>
+      <c r="DC6">
+        <v>6088</v>
+      </c>
+      <c r="DD6">
+        <v>20583</v>
+      </c>
+      <c r="DE6">
+        <v>3516</v>
+      </c>
+      <c r="DF6">
+        <v>-1378</v>
+      </c>
+      <c r="DG6">
+        <v>-2338</v>
+      </c>
+      <c r="DH6">
+        <v>15419</v>
+      </c>
+      <c r="DI6">
+        <v>14098</v>
+      </c>
+      <c r="DJ6">
+        <v>4577</v>
+      </c>
+      <c r="DK6">
+        <v>-1147</v>
+      </c>
+      <c r="DL6">
+        <v>-1182</v>
+      </c>
+      <c r="DM6">
+        <v>2947</v>
+      </c>
+      <c r="DN6">
+        <v>1886</v>
+      </c>
+      <c r="DO6">
+        <v>11964</v>
+      </c>
+      <c r="DP6">
+        <v>3004</v>
+      </c>
+      <c r="DQ6">
+        <v>-2136</v>
+      </c>
+      <c r="DR6">
+        <v>-626</v>
+      </c>
+      <c r="DS6">
+        <v>6071</v>
+      </c>
+      <c r="DT6">
+        <v>9367</v>
+      </c>
+      <c r="DU6">
+        <v>1407</v>
+      </c>
+      <c r="DV6">
+        <v>-343</v>
+      </c>
+      <c r="DW6">
+        <v>-152</v>
+      </c>
+      <c r="DX6">
+        <v>1128</v>
+      </c>
+      <c r="DY6">
+        <v>4763</v>
+      </c>
+      <c r="DZ6">
+        <v>4400</v>
+      </c>
+      <c r="EA6">
+        <v>2131</v>
+      </c>
+      <c r="EB6">
+        <v>-362</v>
+      </c>
+      <c r="EC6">
+        <v>-1064</v>
+      </c>
+      <c r="ED6">
+        <v>1</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3">
+        <v>121118.9</v>
+      </c>
+      <c r="EH6" s="3">
+        <v>126783</v>
+      </c>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -2005,8 +3442,254 @@
       <c r="BD7">
         <v>-1417</v>
       </c>
+      <c r="BE7">
+        <v>15361</v>
+      </c>
+      <c r="BF7">
+        <v>11600</v>
+      </c>
+      <c r="BG7">
+        <v>5278</v>
+      </c>
+      <c r="BH7">
+        <v>-947</v>
+      </c>
+      <c r="BI7">
+        <v>-1821</v>
+      </c>
+      <c r="BJ7">
+        <v>4265</v>
+      </c>
+      <c r="BK7">
+        <v>6024</v>
+      </c>
+      <c r="BL7">
+        <v>9246</v>
+      </c>
+      <c r="BM7">
+        <v>5520</v>
+      </c>
+      <c r="BN7">
+        <v>-472</v>
+      </c>
+      <c r="BO7">
+        <v>-1716</v>
+      </c>
+      <c r="BP7">
+        <v>2017</v>
+      </c>
+      <c r="BQ7">
+        <v>5538</v>
+      </c>
+      <c r="BR7">
+        <v>1518</v>
+      </c>
+      <c r="BS7">
+        <v>-375</v>
+      </c>
+      <c r="BT7">
+        <v>-277</v>
+      </c>
+      <c r="BU7">
+        <v>640</v>
+      </c>
+      <c r="BV7">
+        <v>1728</v>
+      </c>
+      <c r="BW7">
+        <v>4213</v>
+      </c>
+      <c r="BX7">
+        <v>1637</v>
+      </c>
+      <c r="BY7">
+        <v>-353</v>
+      </c>
+      <c r="BZ7">
+        <v>-1383</v>
+      </c>
+      <c r="CA7">
+        <v>1808</v>
+      </c>
+      <c r="CB7">
+        <v>13168</v>
+      </c>
+      <c r="CC7">
+        <v>1062</v>
+      </c>
+      <c r="CD7">
+        <v>-524</v>
+      </c>
+      <c r="CE7">
+        <v>420</v>
+      </c>
+      <c r="CF7">
+        <v>-844</v>
+      </c>
+      <c r="CG7">
+        <v>601</v>
+      </c>
+      <c r="CH7">
+        <v>3569</v>
+      </c>
+      <c r="CI7">
+        <v>440</v>
+      </c>
+      <c r="CJ7">
+        <v>-1106</v>
+      </c>
+      <c r="CK7">
+        <v>158</v>
+      </c>
+      <c r="CL7">
+        <v>13835</v>
+      </c>
+      <c r="CM7">
+        <v>18713</v>
+      </c>
+      <c r="CN7">
+        <v>2156</v>
+      </c>
+      <c r="CO7">
+        <v>-1096</v>
+      </c>
+      <c r="CP7">
+        <v>-80</v>
+      </c>
+      <c r="CQ7">
+        <v>847</v>
+      </c>
+      <c r="CR7">
+        <v>12029</v>
+      </c>
+      <c r="CS7">
+        <v>13889</v>
+      </c>
+      <c r="CT7">
+        <v>2506</v>
+      </c>
+      <c r="CU7">
+        <v>-2266</v>
+      </c>
+      <c r="CV7">
+        <v>1104</v>
+      </c>
+      <c r="CW7">
+        <v>23894</v>
+      </c>
+      <c r="CX7">
+        <v>36918</v>
+      </c>
+      <c r="CY7">
+        <v>3193</v>
+      </c>
+      <c r="CZ7">
+        <v>-2093</v>
+      </c>
+      <c r="DA7">
+        <v>-296</v>
+      </c>
+      <c r="DB7">
+        <v>-339</v>
+      </c>
+      <c r="DC7">
+        <v>3377</v>
+      </c>
+      <c r="DD7">
+        <v>16510</v>
+      </c>
+      <c r="DE7">
+        <v>2076</v>
+      </c>
+      <c r="DF7">
+        <v>-911</v>
+      </c>
+      <c r="DG7">
+        <v>-4056</v>
+      </c>
+      <c r="DH7">
+        <v>17513</v>
+      </c>
+      <c r="DI7">
+        <v>14608</v>
+      </c>
+      <c r="DJ7">
+        <v>5264</v>
+      </c>
+      <c r="DK7">
+        <v>-1302</v>
+      </c>
+      <c r="DL7">
+        <v>-985</v>
+      </c>
+      <c r="DM7">
+        <v>2519</v>
+      </c>
+      <c r="DN7">
+        <v>2283</v>
+      </c>
+      <c r="DO7">
+        <v>12101</v>
+      </c>
+      <c r="DP7">
+        <v>3302</v>
+      </c>
+      <c r="DQ7">
+        <v>-1977</v>
+      </c>
+      <c r="DR7">
+        <v>-934</v>
+      </c>
+      <c r="DS7">
+        <v>6843</v>
+      </c>
+      <c r="DT7">
+        <v>9524</v>
+      </c>
+      <c r="DU7">
+        <v>1466</v>
+      </c>
+      <c r="DV7">
+        <v>-284</v>
+      </c>
+      <c r="DW7">
+        <v>-99</v>
+      </c>
+      <c r="DX7">
+        <v>1141</v>
+      </c>
+      <c r="DY7">
+        <v>4574</v>
+      </c>
+      <c r="DZ7">
+        <v>4056</v>
+      </c>
+      <c r="EA7">
+        <v>1290</v>
+      </c>
+      <c r="EB7">
+        <v>-266</v>
+      </c>
+      <c r="EC7">
+        <v>-1153</v>
+      </c>
+      <c r="ED7">
+        <v>1</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>1</v>
+      </c>
+      <c r="EG7" s="3">
+        <v>126783</v>
+      </c>
+      <c r="EH7" s="4">
+        <v>111615</v>
+      </c>
     </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -2109,6 +3792,151 @@
       <c r="BD8">
         <v>-827</v>
       </c>
+      <c r="BE8">
+        <v>15021</v>
+      </c>
+      <c r="BF8">
+        <v>11711</v>
+      </c>
+      <c r="BG8">
+        <v>4474</v>
+      </c>
+      <c r="BH8">
+        <v>-530</v>
+      </c>
+      <c r="BI8">
+        <v>-1499</v>
+      </c>
+      <c r="BJ8">
+        <v>3888</v>
+      </c>
+      <c r="BK8">
+        <v>4283</v>
+      </c>
+      <c r="BL8">
+        <v>8021</v>
+      </c>
+      <c r="BM8">
+        <v>4971</v>
+      </c>
+      <c r="BN8">
+        <v>-563</v>
+      </c>
+      <c r="BO8">
+        <v>-5412</v>
+      </c>
+      <c r="BP8">
+        <v>2492</v>
+      </c>
+      <c r="BQ8">
+        <v>6422</v>
+      </c>
+      <c r="BR8">
+        <v>1468</v>
+      </c>
+      <c r="BS8">
+        <v>-346</v>
+      </c>
+      <c r="BT8">
+        <v>-231</v>
+      </c>
+      <c r="BU8">
+        <v>662</v>
+      </c>
+      <c r="BV8">
+        <v>1324</v>
+      </c>
+      <c r="BW8">
+        <v>3829</v>
+      </c>
+      <c r="BX8">
+        <v>1703</v>
+      </c>
+      <c r="BY8">
+        <v>-490</v>
+      </c>
+      <c r="BZ8">
+        <v>-1252</v>
+      </c>
+      <c r="DH8">
+        <v>18787</v>
+      </c>
+      <c r="DI8">
+        <v>15202</v>
+      </c>
+      <c r="DJ8">
+        <v>5630</v>
+      </c>
+      <c r="DK8">
+        <v>-1325</v>
+      </c>
+      <c r="DL8">
+        <v>-668</v>
+      </c>
+      <c r="DM8">
+        <v>1939</v>
+      </c>
+      <c r="DN8">
+        <v>3619</v>
+      </c>
+      <c r="DO8">
+        <v>13726</v>
+      </c>
+      <c r="DP8">
+        <v>4051</v>
+      </c>
+      <c r="DQ8">
+        <v>-2121</v>
+      </c>
+      <c r="DR8">
+        <v>-410</v>
+      </c>
+      <c r="DS8">
+        <v>7772</v>
+      </c>
+      <c r="DT8">
+        <v>11518</v>
+      </c>
+      <c r="DU8">
+        <v>1711</v>
+      </c>
+      <c r="DV8">
+        <v>-303</v>
+      </c>
+      <c r="DW8">
+        <v>-128</v>
+      </c>
+      <c r="DX8">
+        <v>1303</v>
+      </c>
+      <c r="DY8">
+        <v>3294</v>
+      </c>
+      <c r="DZ8">
+        <v>4771</v>
+      </c>
+      <c r="EA8">
+        <v>1225</v>
+      </c>
+      <c r="EB8">
+        <v>-334</v>
+      </c>
+      <c r="EC8">
+        <v>-1027</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>1</v>
+      </c>
+      <c r="EF8">
+        <v>1</v>
+      </c>
+      <c r="EG8" s="4">
+        <v>111615</v>
+      </c>
+      <c r="EH8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
